--- a/biology/Écologie/Donella_Meadows/Donella_Meadows.xlsx
+++ b/biology/Écologie/Donella_Meadows/Donella_Meadows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donella H. « Dana » Meadows[2] (née le 13 mars 1941 à Elgin (Illinois), États-Unis – morte le 20 février 2001 à Hanover, dans le New Hampshire) est une écologiste pionnière, enseignante et autrice. Elle est surtout célèbre pour avoir coécrit avec son mari Dennis Meadows, Jørgen Randers, et William Behrens le rapport Les Limites à la croissance, publié en 1972.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donella H. « Dana » Meadows (née le 13 mars 1941 à Elgin (Illinois), États-Unis – morte le 20 février 2001 à Hanover, dans le New Hampshire) est une écologiste pionnière, enseignante et autrice. Elle est surtout célèbre pour avoir coécrit avec son mari Dennis Meadows, Jørgen Randers, et William Behrens le rapport Les Limites à la croissance, publié en 1972.
 </t>
         </is>
       </c>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Formation en sciences:
 1963, B.A. en chimie au Carleton College
 1968, Ph.D. en biophysique à l'université Harvard
 Elle rejoint le Massachusetts Institute of Technology (MIT) en tant que chercheuse.
-En 1972, les chercheurs Dennis Meadows, Donella Meadows, Jørgen Randers, William W. Behrens publient un rapport qui, pour la première fois dans une étude scientifique basée sur un modèle mathématique, calcule les limites de la croissance sur Terre. La conclusion interpelle au temps des Trente Glorieuses: il n’y a pas de croissance économique et démographique infinie dans un monde aux ressources limitées au risque d'effondrement[3].
-Ces modèles reposent sur nombre de variables dont le nombre d’êtres humains, la production de nourriture par habitant, la production industrielle par habitant, le niveau de pollution et les ressources non renouvelables[3].
+En 1972, les chercheurs Dennis Meadows, Donella Meadows, Jørgen Randers, William W. Behrens publient un rapport qui, pour la première fois dans une étude scientifique basée sur un modèle mathématique, calcule les limites de la croissance sur Terre. La conclusion interpelle au temps des Trente Glorieuses: il n’y a pas de croissance économique et démographique infinie dans un monde aux ressources limitées au risque d'effondrement.
+Ces modèles reposent sur nombre de variables dont le nombre d’êtres humains, la production de nourriture par habitant, la production industrielle par habitant, le niveau de pollution et les ressources non renouvelables.
 Donella Meadows est à la base de l'étude de la dynamique des systèmes complexes et formule l'hypothèse que l'on dispose de douze leviers pour intervenir dans son fonctionnement. Ses observations sont souvent citées en économie de l’énergie, en économie verte et en théorie du développement humain.  
 Ses combats écologiques ont été menés pour le devenir d'un monde en développement durable et respectueux des limites finies de la terre.
-Elle meurt à 59 ans d'une méningite[4].
+Elle meurt à 59 ans d'une méningite.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Donella H. Meadows, Jorgen Randers et Dennis L. Meadows Limits to Growth-The 30 year Update, 2004, hardcover  (ISBN 1-931498-51-2)
 Dennis L. Meadows, Donella H. Meadows, Eds. Toward Global Equilibrium: Collected Papers, Pegasus Communications, 1973, hardcover  (ISBN 0-262-13143-9)
